--- a/medicine/Pharmacie/℞/℞.xlsx
+++ b/medicine/Pharmacie/℞/℞.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%E2%84%9E</t>
+          <t>℞</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">℞, en translittération Rx ou Rx, est un monogramme composé de la lettre R majuscule et d'une barre diagonale.
 ℞ est une abréviation de Rx, du latin recipere ou recipe, qui signifie « prends celle-ci ». ℞ est utilisé dans la culture anglo-saxonne comme logogramme dans la symbolique typographique pour désigner une prescription en médecine, ou plus généralement comme symbole de la pharmacie.
 ℞ a comme identifiant :
-dans la table des caractères Unicode dans le bloc Symboles de type lettre : U+211E. Sa description est ORDONNANCES en français[1] et PRESCRIPTION TAKE en anglais[2] ;
+dans la table des caractères Unicode dans le bloc Symboles de type lettre : U+211E. Sa description est ORDONNANCES en français et PRESCRIPTION TAKE en anglais ;
 dans la table UTF8 hexadécimale : E2 84 9E.
 			℞ avec empattement typographique.
 			Utilisation en tant que symbole de la pharmacie.
